--- a/Open Loop Systems/embedded open loop.xlsx
+++ b/Open Loop Systems/embedded open loop.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan\Desktop\embedded_repos\lab-6taking-control-over-your-embedded-life-upside-down-world-team_lab6\Open Loop Systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,6 +105,39 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PWM vs Temperature achieved</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40393744531933506"/>
+          <c:y val="2.6845637583892617E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -362,6 +394,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PWM duty cycle</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -424,6 +511,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>temperature achieved</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1070,16 +1212,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1403,21 +1545,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D16"/>
+      <selection activeCell="J21" sqref="J20:J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -1428,7 +1570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>0</v>
       </c>
@@ -1442,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>10</v>
       </c>
@@ -1456,7 +1598,7 @@
         <v>79.7</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>20</v>
       </c>
@@ -1464,7 +1606,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>30</v>
       </c>
@@ -1472,7 +1614,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>40</v>
       </c>
@@ -1480,7 +1622,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>50</v>
       </c>
@@ -1488,7 +1630,7 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>60</v>
       </c>
@@ -1496,7 +1638,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>70</v>
       </c>
@@ -1504,7 +1646,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>80</v>
       </c>
@@ -1512,7 +1654,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>90</v>
       </c>
@@ -1520,7 +1662,7 @@
         <v>42.8</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>100</v>
       </c>
@@ -1528,7 +1670,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G17">
         <v>100</v>
       </c>
